--- a/HistoriaOrdenada/IndiceDeArchivosDeTexto.xlsx
+++ b/HistoriaOrdenada/IndiceDeArchivosDeTexto.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>RUTA DEL ARCHIVO</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>/freezerEsPerdonado.txt</t>
-  </si>
-  <si>
-    <t>/diosesJuzgando.txt</t>
   </si>
   <si>
     <t>/finalBueno.txt</t>
@@ -172,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +188,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,7 +229,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +242,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Énfasis1" xfId="2" builtinId="32"/>
@@ -519,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +540,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1028,17 +1034,14 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>